--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -1177,7 +1177,7 @@
   </sheetPr>
   <dimension ref="B2:S112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_repo\Projects\03_WeeklyTask\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="552" windowWidth="19812" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Working and assign tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Software Planning" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="223">
   <si>
     <t>Task no</t>
   </si>
@@ -352,15 +358,9 @@
     <t xml:space="preserve"> Sunil</t>
   </si>
   <si>
-    <t>Kheeel</t>
-  </si>
-  <si>
     <t>Arun</t>
   </si>
   <si>
-    <t>Rhjamatah</t>
-  </si>
-  <si>
     <t>Time Sheet</t>
   </si>
   <si>
@@ -662,12 +662,45 @@
   </si>
   <si>
     <t>Incase no NW restart the GMS modem.</t>
+  </si>
+  <si>
+    <t>Rahamath</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Front page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html and CSS to desing the UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP script Auth the user data </t>
+  </si>
+  <si>
+    <t>create user data db table</t>
+  </si>
+  <si>
+    <t>php script to create session</t>
+  </si>
+  <si>
+    <t>enter the username and password in the field</t>
+  </si>
+  <si>
+    <t>login button to redirect the page after auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the validation in the fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the username and password matches in the db in redirects to the next page </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -809,6 +842,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,9 +856,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,6 +865,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1044,13 +1080,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1081,42 +1117,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1132,7 +1168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1143,32 +1179,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1179,37 +1215,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1220,47 +1256,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1271,27 +1307,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -1302,27 +1338,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
@@ -1339,36 +1375,36 @@
   </sheetPr>
   <dimension ref="B2:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
@@ -1387,16 +1423,16 @@
         <v>109</v>
       </c>
       <c r="I3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>60</v>
       </c>
@@ -1412,7 +1448,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
@@ -1436,7 +1472,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
@@ -1456,7 +1492,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
@@ -1474,7 +1510,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
@@ -1488,7 +1524,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
@@ -1502,7 +1538,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
@@ -1516,7 +1552,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
@@ -1530,7 +1566,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
@@ -1544,7 +1580,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
@@ -1562,7 +1598,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7" t="s">
@@ -1576,7 +1612,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>79</v>
       </c>
@@ -1594,7 +1630,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7" t="s">
@@ -1608,7 +1644,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7" t="s">
@@ -1622,7 +1658,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7" t="s">
@@ -1636,7 +1672,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
@@ -1654,7 +1690,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>96</v>
       </c>
@@ -1670,7 +1706,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>97</v>
       </c>
@@ -1686,7 +1722,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>98</v>
       </c>
@@ -1702,7 +1738,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>99</v>
       </c>
@@ -1718,7 +1754,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>100</v>
       </c>
@@ -1734,7 +1770,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>101</v>
       </c>
@@ -1750,7 +1786,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>102</v>
       </c>
@@ -1766,7 +1802,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>103</v>
       </c>
@@ -1782,12 +1818,12 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1798,15 +1834,15 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1816,13 +1852,13 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1832,13 +1868,13 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1848,13 +1884,13 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1864,13 +1900,13 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1880,15 +1916,15 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1898,11 +1934,11 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1912,11 +1948,11 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1926,11 +1962,11 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1940,15 +1976,15 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1958,11 +1994,11 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1972,11 +2008,11 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1986,11 +2022,11 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2000,11 +2036,11 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2014,11 +2050,11 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2028,11 +2064,11 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2042,11 +2078,11 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2056,13 +2092,13 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2072,11 +2108,11 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2086,7 +2122,7 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="10" t="s">
@@ -2100,11 +2136,11 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -2114,7 +2150,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="10" t="s">
@@ -2128,11 +2164,11 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2142,12 +2178,12 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>176</v>
+        <v>142</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2158,15 +2194,15 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2176,11 +2212,11 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2190,11 +2226,11 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2204,7 +2240,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
@@ -2218,11 +2254,11 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2232,15 +2268,15 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2250,11 +2286,11 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2264,11 +2300,11 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2278,11 +2314,11 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2292,11 +2328,11 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -2306,15 +2342,15 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2324,11 +2360,11 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2338,11 +2374,11 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -2352,11 +2388,11 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2366,11 +2402,11 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2380,7 +2416,7 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>84</v>
       </c>
@@ -2388,7 +2424,7 @@
         <v>47</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -2398,15 +2434,15 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -2416,11 +2452,11 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2430,15 +2466,15 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -2448,11 +2484,11 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -2462,11 +2498,11 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2476,11 +2512,11 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -2490,11 +2526,11 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -2504,11 +2540,11 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -2518,11 +2554,11 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -2532,11 +2568,11 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -2546,12 +2582,12 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2562,15 +2598,15 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -2580,11 +2616,11 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -2594,11 +2630,11 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -2608,11 +2644,11 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -2622,11 +2658,11 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -2636,11 +2672,11 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -2650,11 +2686,11 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -2664,11 +2700,11 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -2678,11 +2714,11 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -2692,11 +2728,11 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -2706,11 +2742,11 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -2720,11 +2756,11 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -2734,11 +2770,11 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -2748,11 +2784,11 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -2762,11 +2798,11 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -2776,11 +2812,11 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -2790,11 +2826,11 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -2804,15 +2840,15 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -2822,11 +2858,11 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -2836,11 +2872,11 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="2:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -2850,12 +2886,12 @@
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2866,13 +2902,13 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -2882,11 +2918,11 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -2896,11 +2932,11 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -2910,11 +2946,11 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -2924,11 +2960,11 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -2938,11 +2974,11 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -2952,11 +2988,11 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -2966,11 +3002,11 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -2980,11 +3016,11 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -2994,11 +3030,11 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -3008,11 +3044,11 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -3022,11 +3058,11 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -3044,4 +3080,1718 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:K112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_repo\Projects\03_WeeklyTask\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Planning" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Working and assign tasks" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Planning" sheetId="1" r:id="rId1"/>
+    <sheet name="Working and assign tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Software" sheetId="4" r:id="rId3"/>
+    <sheet name="Software Planning" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,354 +27,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="215">
-  <si>
-    <t xml:space="preserve">Task no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEN1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPRS data upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connection checking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code cleanup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data upload (JSON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicator fault upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store data offline when no connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button fetch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration fetch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timeout function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MQTT protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MQTT Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEN1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Source monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEN1003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read chip info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erase sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erase block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erase chip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create pages for storing data, configuration, fault logs, data logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEN1004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Side scripting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storing data in JSON format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi device information in a single page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration of each devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">individual indicator info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fault log page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action button working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New device registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Alram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="215">
+  <si>
+    <t>Task no</t>
+  </si>
+  <si>
+    <t>Task details</t>
+  </si>
+  <si>
+    <t>Sub task</t>
+  </si>
+  <si>
+    <t>Team members</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>PEN1001</t>
+  </si>
+  <si>
+    <t>GPRS data upload</t>
+  </si>
+  <si>
+    <t>Connection checking</t>
+  </si>
+  <si>
+    <t>Code cleanup</t>
+  </si>
+  <si>
+    <t>Data upload (JSON)</t>
+  </si>
+  <si>
+    <t>indicator fault upload</t>
+  </si>
+  <si>
+    <t>store data offline when no connection</t>
+  </si>
+  <si>
+    <t>Button fetch</t>
+  </si>
+  <si>
+    <t>Configuration fetch</t>
+  </si>
+  <si>
+    <t>Timeout function</t>
+  </si>
+  <si>
+    <t>MQTT protocol</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>MQTT Hardware</t>
+  </si>
+  <si>
+    <t>PEN1002</t>
+  </si>
+  <si>
+    <t>Power Source monitoring</t>
+  </si>
+  <si>
+    <t>ac voltage</t>
+  </si>
+  <si>
+    <t>ac current</t>
+  </si>
+  <si>
+    <t>ac power</t>
+  </si>
+  <si>
+    <t>dc voltage</t>
+  </si>
+  <si>
+    <t>dc current</t>
+  </si>
+  <si>
+    <t>dc power</t>
+  </si>
+  <si>
+    <t>PEN1003</t>
+  </si>
+  <si>
+    <t>Flash memory</t>
+  </si>
+  <si>
+    <t>Read chip info</t>
+  </si>
+  <si>
+    <t>Read data</t>
+  </si>
+  <si>
+    <t>write data</t>
+  </si>
+  <si>
+    <t>erase sector</t>
+  </si>
+  <si>
+    <t>erase block</t>
+  </si>
+  <si>
+    <t>erase chip</t>
+  </si>
+  <si>
+    <t>create pages for storing data, configuration, fault logs, data logs</t>
+  </si>
+  <si>
+    <t>PEN1004</t>
+  </si>
+  <si>
+    <t>Server Side scripting</t>
+  </si>
+  <si>
+    <t>Storing data in JSON format</t>
+  </si>
+  <si>
+    <t>Multi device information in a single page</t>
+  </si>
+  <si>
+    <t>No data available info</t>
+  </si>
+  <si>
+    <t>configuration of each devices</t>
+  </si>
+  <si>
+    <t>individual indicator info</t>
+  </si>
+  <si>
+    <t>Fault log page</t>
+  </si>
+  <si>
+    <t>History page</t>
+  </si>
+  <si>
+    <t>Action button working</t>
+  </si>
+  <si>
+    <t>New device registration</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>Read time</t>
+  </si>
+  <si>
+    <t>Read Date</t>
+  </si>
+  <si>
+    <t>Set Time</t>
+  </si>
+  <si>
+    <t>Set Date</t>
+  </si>
+  <si>
+    <t>Set Alram</t>
+  </si>
+  <si>
+    <t>Display</t>
   </si>
   <si>
     <t xml:space="preserve">LCD Setting </t>
   </si>
   <si>
-    <t xml:space="preserve">LCD Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCD Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Week Sprint 1)  28/Jun/2021 Team lead Sunil,  Khaleel Tech Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexity Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
+    <t>LCD Command</t>
+  </si>
+  <si>
+    <t>LCD Data</t>
+  </si>
+  <si>
+    <t>Clear Display</t>
+  </si>
+  <si>
+    <t>Animation effects</t>
+  </si>
+  <si>
+    <t>(Week Sprint 1)  28/Jun/2021 Team lead Sunil,  Khaleel Tech Lead</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Sub Task</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>Complexity Level</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
   <si>
     <t xml:space="preserve"> Sunil</t>
   </si>
   <si>
-    <t xml:space="preserve">Kheeel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhjamatah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPRS Data</t>
+    <t>Kheeel</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Rhjamatah</t>
+  </si>
+  <si>
+    <t>Objective 1</t>
+  </si>
+  <si>
+    <t>GPRS Data</t>
   </si>
   <si>
     <t xml:space="preserve">KR1 </t>
   </si>
   <si>
-    <t xml:space="preserve">GPRS Intialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect SIM card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khaleel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect N/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initialise GSM NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahamath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
+    <t>GPRS Intialization</t>
+  </si>
+  <si>
+    <t>Detect SIM card</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Khaleel</t>
+  </si>
+  <si>
+    <t>Detect N/w</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Initialise GSM NW</t>
+  </si>
+  <si>
+    <t>Rahamath</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t xml:space="preserve">Initialise GPRS </t>
   </si>
   <si>
-    <t xml:space="preserve">Make GPRS Bearer Connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link HTTP connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uplaod the Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close HTTP connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPRS Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parse the response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR3</t>
+    <t>Make GPRS Bearer Connection</t>
+  </si>
+  <si>
+    <t>Link HTTP connection</t>
+  </si>
+  <si>
+    <t>Uplaod the Data</t>
+  </si>
+  <si>
+    <t>Close HTTP connection</t>
+  </si>
+  <si>
+    <t>KR2</t>
+  </si>
+  <si>
+    <t>GPRS Response</t>
+  </si>
+  <si>
+    <t>Read the response</t>
+  </si>
+  <si>
+    <t>Parse the response</t>
+  </si>
+  <si>
+    <t>KR3</t>
   </si>
   <si>
     <t xml:space="preserve">Server Application </t>
   </si>
   <si>
-    <t xml:space="preserve">Creat PHP scripit to read URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetch Data from URL and store DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send success response to Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send customizsed response to device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create PHP scrpit to read data from DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4_1</t>
+    <t>Creat PHP scripit to read URL</t>
+  </si>
+  <si>
+    <t>Fetch Data from URL and store DB</t>
+  </si>
+  <si>
+    <t>Send success response to Device</t>
+  </si>
+  <si>
+    <t>Send customizsed response to device</t>
+  </si>
+  <si>
+    <t>KR4</t>
+  </si>
+  <si>
+    <t>Web Application</t>
+  </si>
+  <si>
+    <t>Create PHP scrpit to read data from DB</t>
+  </si>
+  <si>
+    <t>KR4_1</t>
   </si>
   <si>
     <t xml:space="preserve">HTML and CSS to desing the UI </t>
   </si>
   <si>
-    <t xml:space="preserve">KR4_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customizsed Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Different Login user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin should be able creat device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admi can assing devices to each user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User can read/write only his device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User rights to configured read and Write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR4_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Confguration 
+    <t>KR4_2</t>
+  </si>
+  <si>
+    <t>Customizsed Template</t>
+  </si>
+  <si>
+    <t>KR4_3</t>
+  </si>
+  <si>
+    <t>Different Login user</t>
+  </si>
+  <si>
+    <t>KR4_4</t>
+  </si>
+  <si>
+    <t>Admin should be able creat device</t>
+  </si>
+  <si>
+    <t>KR4_5</t>
+  </si>
+  <si>
+    <t>Admi can assing devices to each user</t>
+  </si>
+  <si>
+    <t>KR4_6</t>
+  </si>
+  <si>
+    <t>User can read/write only his device</t>
+  </si>
+  <si>
+    <t>KR4_7</t>
+  </si>
+  <si>
+    <t>User rights to configured read and Write</t>
+  </si>
+  <si>
+    <t>KR4_8</t>
+  </si>
+  <si>
+    <t>Device Confguration 
 1. Device ID
 2. Device Location
 3.Device Name
@@ -376,82 +382,82 @@
 etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Objective 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory Intitilasation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory Write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory related APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Temp sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intiiaise the temp sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intilaise internal ADC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read Temperature</t>
+    <t>Objective 2</t>
+  </si>
+  <si>
+    <t>Read Parameter</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Memory Intitilasation</t>
+  </si>
+  <si>
+    <t>KR1_1</t>
+  </si>
+  <si>
+    <t>Memory Configuration</t>
+  </si>
+  <si>
+    <t>KR1_2</t>
+  </si>
+  <si>
+    <t>Memory read</t>
+  </si>
+  <si>
+    <t>KR1_3</t>
+  </si>
+  <si>
+    <t>Memory Write</t>
+  </si>
+  <si>
+    <t>KR1_4</t>
+  </si>
+  <si>
+    <t>Memory related APIs</t>
+  </si>
+  <si>
+    <t>Internal Temp sensor</t>
+  </si>
+  <si>
+    <t>Intiiaise the temp sensor</t>
+  </si>
+  <si>
+    <t>Intilaise internal ADC</t>
+  </si>
+  <si>
+    <t>read Temperature</t>
   </si>
   <si>
     <t xml:space="preserve">Store Temperuatre with time </t>
   </si>
   <si>
-    <t xml:space="preserve">Power Parmeter</t>
+    <t>Power Parmeter</t>
   </si>
   <si>
     <t xml:space="preserve">Intialise the AC sensors </t>
   </si>
   <si>
-    <t xml:space="preserve">Read AC Volatage values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read AC current values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store w.r.t time</t>
+    <t>Read AC Volatage values</t>
+  </si>
+  <si>
+    <t>Read AC current values</t>
+  </si>
+  <si>
+    <t>Store w.r.t time</t>
   </si>
   <si>
     <t xml:space="preserve">Intialise the DC sensors </t>
   </si>
   <si>
-    <t xml:space="preserve">Read DC Volatage values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read DC current values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intialise the RTC</t>
+    <t>Read DC Volatage values</t>
+  </si>
+  <si>
+    <t>Read DC current values</t>
+  </si>
+  <si>
+    <t>Intialise the RTC</t>
   </si>
   <si>
     <t xml:space="preserve">Read  time </t>
@@ -460,124 +466,124 @@
     <t xml:space="preserve">Set Time </t>
   </si>
   <si>
-    <t xml:space="preserve">Set Alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 3</t>
+    <t>Set Alarm</t>
+  </si>
+  <si>
+    <t>Objective 3</t>
   </si>
   <si>
     <t xml:space="preserve">Device User Interface &amp; Security </t>
   </si>
   <si>
-    <t xml:space="preserve">KR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCD 16x2</t>
+    <t>KR1</t>
+  </si>
+  <si>
+    <t>LCD 16x2</t>
   </si>
   <si>
     <t xml:space="preserve">Initilaisation </t>
   </si>
   <si>
-    <t xml:space="preserve">Command write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key pad 4 Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Menus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Resets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED sequencing for Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Date and Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display error Messages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Consumptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initlaisation of GPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor the GPIO open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise alram Buzzer or LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display on LCD</t>
+    <t>Command write</t>
+  </si>
+  <si>
+    <t>Data Write</t>
+  </si>
+  <si>
+    <t>Animation display</t>
+  </si>
+  <si>
+    <t>Key pad 4 Buttons</t>
+  </si>
+  <si>
+    <t>Read Keys</t>
+  </si>
+  <si>
+    <t>Create Menus</t>
+  </si>
+  <si>
+    <t>Navigate Menu</t>
+  </si>
+  <si>
+    <t>Error Resets</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>LED sequencing for Indication</t>
+  </si>
+  <si>
+    <t>LED Animation</t>
+  </si>
+  <si>
+    <t>LED OFF</t>
+  </si>
+  <si>
+    <t>LED ON</t>
+  </si>
+  <si>
+    <t>Display Date and Time</t>
+  </si>
+  <si>
+    <t>KR5</t>
+  </si>
+  <si>
+    <t>Display error Messages</t>
+  </si>
+  <si>
+    <t>Power Consumptions</t>
+  </si>
+  <si>
+    <t>KR6</t>
+  </si>
+  <si>
+    <t>Device Security</t>
+  </si>
+  <si>
+    <t>Initlaisation of GPIO</t>
+  </si>
+  <si>
+    <t>Monitor the GPIO open</t>
+  </si>
+  <si>
+    <t>Raise alram Buzzer or LED</t>
+  </si>
+  <si>
+    <t>Display on LCD</t>
   </si>
   <si>
     <t xml:space="preserve">Send Secuirty breach to Server </t>
   </si>
   <si>
-    <t xml:space="preserve">Send SMS Alert to User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authorise access for secured access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shut down the device incase of security breach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 4</t>
+    <t>Send SMS Alert to User</t>
+  </si>
+  <si>
+    <t>Authorise access for secured access</t>
+  </si>
+  <si>
+    <t>Shut down the device incase of security breach</t>
+  </si>
+  <si>
+    <t>Objective 4</t>
   </si>
   <si>
     <t xml:space="preserve"> Faults &amp; Log</t>
   </si>
   <si>
-    <t xml:space="preserve">Faults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Circuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSM NW issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPRS No connections</t>
+    <t>Faults</t>
+  </si>
+  <si>
+    <t>Overload</t>
+  </si>
+  <si>
+    <t>Short Circuit</t>
+  </si>
+  <si>
+    <t>GSM NW issues</t>
+  </si>
+  <si>
+    <t>GPRS No connections</t>
   </si>
   <si>
     <t xml:space="preserve">ADC not working </t>
@@ -586,16 +592,16 @@
     <t xml:space="preserve">Sensor not wokring </t>
   </si>
   <si>
-    <t xml:space="preserve">Key Pad fault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCD fault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED fault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash Memory error</t>
+    <t>Key Pad fault</t>
+  </si>
+  <si>
+    <t>LCD fault</t>
+  </si>
+  <si>
+    <t>LED fault</t>
+  </si>
+  <si>
+    <t>Flash Memory error</t>
   </si>
   <si>
     <t xml:space="preserve">RTC Error </t>
@@ -604,104 +610,85 @@
     <t xml:space="preserve">Send communication Failed </t>
   </si>
   <si>
-    <t xml:space="preserve">Set voltage AC threshold overshoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set voltage DC threshold overshoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Current AC threshold overshoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Current DC threshold overshoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All to be logged in flash memory with date and Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History Log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log every data that is send to Sever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log for three months rolling period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory full and roll back time to be logged seperatley for every roll over and communicate with the server.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication with Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uploading of Parmeters to server</t>
+    <t>Set voltage AC threshold overshoot</t>
+  </si>
+  <si>
+    <t>Set voltage DC threshold overshoot</t>
+  </si>
+  <si>
+    <t>Set Current AC threshold overshoot</t>
+  </si>
+  <si>
+    <t>Set Current DC threshold overshoot</t>
+  </si>
+  <si>
+    <t>All to be logged in flash memory with date and Time</t>
+  </si>
+  <si>
+    <t>History Log</t>
+  </si>
+  <si>
+    <t>Log every data that is send to Sever</t>
+  </si>
+  <si>
+    <t>Log for three months rolling period.</t>
+  </si>
+  <si>
+    <t>Memory full and roll back time to be logged seperatley for every roll over and communicate with the server.</t>
+  </si>
+  <si>
+    <t>Objective 5</t>
+  </si>
+  <si>
+    <t>Communication with Server</t>
+  </si>
+  <si>
+    <t>Uploading of Parmeters to server</t>
   </si>
   <si>
     <t xml:space="preserve">Repose from Server </t>
   </si>
   <si>
-    <t xml:space="preserve">Set date and time Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set threshold Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request history Log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request for Fault Log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request for SMS with recent  data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shut down device from Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the device from Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request status of keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Configuration  from Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incase no NW restart the GMS modem.</t>
+    <t>Set date and time Request</t>
+  </si>
+  <si>
+    <t>Set threshold Request</t>
+  </si>
+  <si>
+    <t>Request history Log</t>
+  </si>
+  <si>
+    <t>Request for Fault Log</t>
+  </si>
+  <si>
+    <t>Request for SMS with recent  data</t>
+  </si>
+  <si>
+    <t>Shut down device from Server</t>
+  </si>
+  <si>
+    <t>On the device from Server</t>
+  </si>
+  <si>
+    <t>Request status of keys</t>
+  </si>
+  <si>
+    <t>Request Configuration  from Server</t>
+  </si>
+  <si>
+    <t>Incase no NW restart the GMS modem.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -717,7 +704,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -734,479 +721,696 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.99"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1" t="s">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.86"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
@@ -1234,7 +1438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
@@ -1250,7 +1454,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>71</v>
       </c>
@@ -1267,17 +1471,17 @@
         <v>75</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="4">
         <v>8</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="9" t="s">
@@ -1291,16 +1495,16 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="4">
         <v>3</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="S6" s="0" t="s">
+      <c r="S6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="9" t="s">
@@ -1314,16 +1518,16 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="4">
         <v>2</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="S7" s="0" t="s">
+      <c r="S7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="9" t="s">
@@ -1336,11 +1540,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="S8" s="0" t="s">
+      <c r="S8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="9" t="s">
@@ -1354,7 +1558,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9" t="s">
@@ -1368,7 +1572,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="9" t="s">
@@ -1382,7 +1586,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="9" t="s">
@@ -1396,7 +1600,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>87</v>
       </c>
@@ -1413,11 +1617,11 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="S13" s="0" t="s">
+      <c r="S13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="10" t="s">
@@ -1430,11 +1634,11 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="S14" s="0" t="s">
+      <c r="S14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>91</v>
       </c>
@@ -1451,11 +1655,11 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="S15" s="0" t="s">
+      <c r="S15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
@@ -1469,7 +1673,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="10" t="s">
@@ -1483,7 +1687,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="10" t="s">
@@ -1497,7 +1701,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -1515,7 +1719,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>100</v>
       </c>
@@ -1531,7 +1735,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>102</v>
       </c>
@@ -1547,7 +1751,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>104</v>
       </c>
@@ -1563,7 +1767,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>106</v>
       </c>
@@ -1579,7 +1783,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>108</v>
       </c>
@@ -1595,7 +1799,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>110</v>
       </c>
@@ -1611,7 +1815,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>112</v>
       </c>
@@ -1627,7 +1831,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>114</v>
       </c>
@@ -1643,7 +1847,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>116</v>
       </c>
@@ -1659,7 +1863,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>71</v>
       </c>
@@ -1677,7 +1881,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>120</v>
       </c>
@@ -1693,7 +1897,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>122</v>
       </c>
@@ -1709,7 +1913,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>124</v>
       </c>
@@ -1725,7 +1929,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>126</v>
       </c>
@@ -1741,7 +1945,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>87</v>
       </c>
@@ -1759,7 +1963,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="13" t="s">
@@ -1773,7 +1977,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="13" t="s">
@@ -1787,7 +1991,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="13" t="s">
@@ -1801,7 +2005,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>91</v>
       </c>
@@ -1819,7 +2023,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="13" t="s">
@@ -1833,7 +2037,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="13" t="s">
@@ -1847,7 +2051,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="13" t="s">
@@ -1861,7 +2065,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="13" t="s">
@@ -1875,7 +2079,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="13" t="s">
@@ -1889,7 +2093,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="13" t="s">
@@ -1903,7 +2107,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="13" t="s">
@@ -1917,7 +2121,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>97</v>
       </c>
@@ -1933,7 +2137,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="13" t="s">
@@ -1947,7 +2151,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="13" t="s">
@@ -1961,7 +2165,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="13" t="s">
@@ -1975,7 +2179,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="13" t="s">
@@ -1989,7 +2193,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="13" t="s">
@@ -2003,7 +2207,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>145</v>
       </c>
@@ -2019,7 +2223,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>147</v>
       </c>
@@ -2037,7 +2241,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
@@ -2051,7 +2255,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
@@ -2065,7 +2269,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
@@ -2079,7 +2283,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
@@ -2093,7 +2297,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>87</v>
       </c>
@@ -2111,7 +2315,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
@@ -2125,7 +2329,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9" t="s">
@@ -2139,7 +2343,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9" t="s">
@@ -2153,7 +2357,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
@@ -2167,7 +2371,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>91</v>
       </c>
@@ -2185,7 +2389,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
@@ -2199,7 +2403,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="10" t="s">
@@ -2213,7 +2417,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="10" t="s">
@@ -2227,7 +2431,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="10" t="s">
@@ -2241,7 +2445,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>97</v>
       </c>
@@ -2259,7 +2463,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>164</v>
       </c>
@@ -2277,7 +2481,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="10" t="s">
@@ -2291,7 +2495,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>167</v>
       </c>
@@ -2309,7 +2513,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="10" t="s">
@@ -2323,7 +2527,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="10" t="s">
@@ -2337,7 +2541,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="10" t="s">
@@ -2351,7 +2555,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="10" t="s">
@@ -2365,7 +2569,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="10" t="s">
@@ -2379,7 +2583,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="10" t="s">
@@ -2393,7 +2597,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="10" t="s">
@@ -2407,7 +2611,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>177</v>
       </c>
@@ -2423,7 +2627,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>147</v>
       </c>
@@ -2441,7 +2645,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="10" t="s">
@@ -2455,7 +2659,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="10" t="s">
@@ -2469,7 +2673,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="10" t="s">
@@ -2483,7 +2687,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="10" t="s">
@@ -2497,7 +2701,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="10" t="s">
@@ -2511,7 +2715,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="10" t="s">
@@ -2525,7 +2729,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="10" t="s">
@@ -2539,7 +2743,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="10" t="s">
@@ -2553,7 +2757,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="10" t="s">
@@ -2567,7 +2771,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="10" t="s">
@@ -2581,7 +2785,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="10" t="s">
@@ -2595,7 +2799,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="10" t="s">
@@ -2609,7 +2813,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="10" t="s">
@@ -2623,7 +2827,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="10" t="s">
@@ -2637,7 +2841,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="10" t="s">
@@ -2651,7 +2855,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="10" t="s">
@@ -2665,7 +2869,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>87</v>
       </c>
@@ -2683,7 +2887,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="10" t="s">
@@ -2697,7 +2901,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="13" t="s">
@@ -2711,7 +2915,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>201</v>
       </c>
@@ -2727,7 +2931,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
         <v>147</v>
       </c>
@@ -2743,7 +2947,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="10" t="s">
@@ -2757,7 +2961,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="10" t="s">
@@ -2771,7 +2975,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="10" t="s">
@@ -2785,7 +2989,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="10" t="s">
@@ -2799,7 +3003,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="10" t="s">
@@ -2813,7 +3017,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="10" t="s">
@@ -2827,7 +3031,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="10" t="s">
@@ -2841,7 +3045,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="10" t="s">
@@ -2855,7 +3059,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="10" t="s">
@@ -2869,7 +3073,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="10" t="s">
@@ -2883,7 +3087,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="10" t="s">
@@ -2903,21 +3107,1772 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E112" type="list">
-      <formula1>'Working and assign tasks'!$S$5:$S$8</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E5:E112">
+      <formula1>$S$5:$S$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F112" type="list">
-      <formula1>'Working and assign tasks'!$S$13:$S$15</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F5:F112">
+      <formula1>$S$13:$S$15</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="S5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="S6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="S7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="S8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="S13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="S14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="S15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F5:F112">
+      <formula1>$S$13:$S$15</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E5:E112">
+      <formula1>$S$5:$S$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="304">
   <si>
     <t xml:space="preserve">Task no</t>
   </si>
@@ -228,7 +228,7 @@
     <t xml:space="preserve">Arun</t>
   </si>
   <si>
-    <t xml:space="preserve">Rhjamatah</t>
+    <t xml:space="preserve">Rahamath</t>
   </si>
   <si>
     <t xml:space="preserve">Objective 1</t>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve">Initialise GSM NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahamath</t>
   </si>
   <si>
     <t xml:space="preserve">Low</t>
@@ -735,6 +732,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ac &amp; Dc voltage respect to device id</t>
     </r>
@@ -749,6 +747,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Display the </t>
     </r>
@@ -758,6 +757,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ac &amp; Dc Current respect to  device id</t>
     </r>
@@ -772,6 +772,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Display the </t>
     </r>
@@ -781,6 +782,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ac &amp; Dc Power respect to  device id</t>
     </r>
@@ -858,25 +860,7 @@
     <t xml:space="preserve">server link</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">server Link </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Configuration</t>
-    </r>
+    <t xml:space="preserve">server Link Configuration</t>
   </si>
   <si>
     <t xml:space="preserve">apn </t>
@@ -894,6 +878,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Username</t>
     </r>
@@ -903,6 +888,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Configuration</t>
     </r>
@@ -917,6 +903,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">password</t>
     </r>
@@ -926,6 +913,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Configuration</t>
     </r>
@@ -940,6 +928,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">location</t>
     </r>
@@ -949,18 +938,9 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Configuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Configuration </t>
     </r>
   </si>
   <si>
@@ -1082,7 +1062,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1127,31 +1107,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1229,7 +1190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1282,31 +1243,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1337,10 +1278,10 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,11 +1579,11 @@
   </sheetPr>
   <dimension ref="B2:S112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.89"/>
@@ -1768,10 +1709,10 @@
         <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1781,14 +1722,14 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="S7" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1805,7 +1746,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1819,7 +1760,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1833,7 +1774,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1847,7 +1788,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1859,13 +1800,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1882,7 +1823,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1897,13 +1838,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1913,14 +1854,14 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="S15" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1934,7 +1875,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1948,7 +1889,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1960,13 +1901,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1978,11 +1919,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1994,11 +1935,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2010,11 +1951,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2026,11 +1967,11 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2042,11 +1983,11 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2058,11 +1999,11 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2074,11 +2015,11 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2090,11 +2031,11 @@
     </row>
     <row r="27" customFormat="false" ht="79.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -2106,10 +2047,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2125,10 +2066,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2140,11 +2081,11 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2156,11 +2097,11 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2172,11 +2113,11 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2188,11 +2129,11 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2204,13 +2145,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2224,7 +2165,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2238,7 +2179,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2252,7 +2193,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2264,13 +2205,13 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2284,7 +2225,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2298,7 +2239,7 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2312,7 +2253,7 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2326,7 +2267,7 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2340,7 +2281,7 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2354,7 +2295,7 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2368,7 +2309,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2380,11 +2321,11 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2398,7 +2339,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2426,7 +2367,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2454,7 +2395,7 @@
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2466,10 +2407,10 @@
     </row>
     <row r="52" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2482,13 +2423,13 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -2502,7 +2443,7 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -2516,7 +2457,7 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -2544,7 +2485,7 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -2556,13 +2497,13 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -2576,7 +2517,7 @@
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -2590,7 +2531,7 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -2604,7 +2545,7 @@
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -2618,7 +2559,7 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -2630,13 +2571,13 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -2650,7 +2591,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -2664,7 +2605,7 @@
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2678,7 +2619,7 @@
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -2692,7 +2633,7 @@
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -2704,13 +2645,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2722,13 +2663,13 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -2742,7 +2683,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2754,13 +2695,13 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -2774,7 +2715,7 @@
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -2788,7 +2729,7 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -2802,7 +2743,7 @@
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -2816,7 +2757,7 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -2830,7 +2771,7 @@
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -2844,7 +2785,7 @@
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -2858,7 +2799,7 @@
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -2870,10 +2811,10 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -2886,13 +2827,13 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -2906,7 +2847,7 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -2920,7 +2861,7 @@
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -2934,7 +2875,7 @@
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -2948,7 +2889,7 @@
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -2962,7 +2903,7 @@
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -2976,7 +2917,7 @@
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -2990,7 +2931,7 @@
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -3004,7 +2945,7 @@
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -3018,7 +2959,7 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -3032,7 +2973,7 @@
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -3046,7 +2987,7 @@
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -3060,7 +3001,7 @@
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -3074,7 +3015,7 @@
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -3088,7 +3029,7 @@
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -3102,7 +3043,7 @@
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -3116,7 +3057,7 @@
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -3128,13 +3069,13 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -3148,7 +3089,7 @@
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -3162,7 +3103,7 @@
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -3174,10 +3115,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3190,11 +3131,11 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -3208,7 +3149,7 @@
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -3222,7 +3163,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -3236,7 +3177,7 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -3250,7 +3191,7 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -3264,7 +3205,7 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -3278,7 +3219,7 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -3292,7 +3233,7 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -3306,7 +3247,7 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -3320,7 +3261,7 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -3334,7 +3275,7 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -3348,7 +3289,7 @@
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -3365,11 +3306,11 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E112" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F112" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3390,11 +3331,11 @@
   </sheetPr>
   <dimension ref="B2:Q99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.89"/>
@@ -3434,7 +3375,7 @@
         <v>67</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3442,7 +3383,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3456,10 +3397,10 @@
         <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -3476,7 +3417,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
@@ -3493,24 +3434,24 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="Q7" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3525,7 +3466,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3545,25 +3486,27 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3583,13 +3526,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3611,11 +3554,11 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4"/>
@@ -3625,12 +3568,12 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -3642,12 +3585,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3656,12 +3599,12 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3670,7 +3613,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8"/>
       <c r="E20" s="4"/>
@@ -3680,14 +3623,14 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3696,9 +3639,9 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -3706,14 +3649,14 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3724,8 +3667,8 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="13" t="s">
-        <v>241</v>
+      <c r="D24" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3736,8 +3679,8 @@
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="13" t="s">
-        <v>242</v>
+      <c r="D25" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3748,7 +3691,7 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3756,14 +3699,14 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3774,8 +3717,8 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="13" t="s">
-        <v>246</v>
+      <c r="D28" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3786,8 +3729,8 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="13" t="s">
-        <v>247</v>
+      <c r="D29" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3798,8 +3741,8 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="13" t="s">
-        <v>248</v>
+      <c r="D30" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3810,7 +3753,7 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -3819,10 +3762,10 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3836,10 +3779,10 @@
         <v>71</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3850,10 +3793,10 @@
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="8"/>
       <c r="C34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3863,11 +3806,11 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="8"/>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3878,10 +3821,10 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3892,10 +3835,10 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="8"/>
       <c r="C37" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3905,11 +3848,11 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="8"/>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3920,10 +3863,10 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3934,10 +3877,10 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3948,10 +3891,10 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3962,10 +3905,10 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3985,13 +3928,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4003,7 +3946,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -4023,10 +3966,10 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4036,26 +3979,28 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="17" t="s">
-        <v>147</v>
+      <c r="B48" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="17"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4064,7 +4009,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="17"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="9"/>
       <c r="E50" s="4"/>
@@ -4074,14 +4019,14 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="17" t="s">
-        <v>87</v>
+      <c r="B51" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4093,7 +4038,7 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4113,18 +4058,20 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4139,13 +4086,13 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4156,10 +4103,10 @@
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4170,10 +4117,10 @@
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4193,8 +4140,8 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="4"/>
-      <c r="C60" s="18" t="s">
-        <v>289</v>
+      <c r="C60" s="14" t="s">
+        <v>288</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="4"/>
@@ -4208,7 +4155,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -4219,13 +4166,13 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -4236,8 +4183,8 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="13" t="s">
-        <v>218</v>
+      <c r="D63" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -4248,8 +4195,8 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="13" t="s">
-        <v>219</v>
+      <c r="D64" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4260,8 +4207,8 @@
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="13" t="s">
-        <v>220</v>
+      <c r="D65" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -4272,8 +4219,8 @@
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="13" t="s">
-        <v>221</v>
+      <c r="D66" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -4284,7 +4231,7 @@
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -4293,13 +4240,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -4311,7 +4258,7 @@
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -4323,7 +4270,7 @@
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -4335,7 +4282,7 @@
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -4355,10 +4302,10 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="8"/>
@@ -4372,10 +4319,10 @@
         <v>71</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -4386,10 +4333,10 @@
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="8"/>
       <c r="C75" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -4399,11 +4346,11 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="8"/>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -4414,10 +4361,10 @@
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="8"/>
       <c r="C77" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -4428,10 +4375,10 @@
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="8"/>
       <c r="C78" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4441,11 +4388,11 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="8"/>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -4456,10 +4403,10 @@
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -4470,10 +4417,10 @@
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -4484,10 +4431,10 @@
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -4498,10 +4445,10 @@
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4520,11 +4467,11 @@
       <c r="I84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>297</v>
+      <c r="B85" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="4"/>
@@ -4535,13 +4482,13 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4553,7 +4500,7 @@
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4563,13 +4510,13 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -4581,7 +4528,7 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4591,13 +4538,13 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>302</v>
+        <v>90</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4607,9 +4554,9 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="4"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4619,13 +4566,13 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>303</v>
+        <v>96</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -4635,9 +4582,9 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="4"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="8"/>
       <c r="D93" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4647,7 +4594,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="4"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -4657,10 +4604,10 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4671,13 +4618,13 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>304</v>
+        <v>178</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4721,11 +4668,11 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E99" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F99" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -1199,9 +1199,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1231,6 +1228,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,279 +1524,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1824,1711 +1824,1711 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <v>8</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="S5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="S6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="S7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="S8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="S13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
       <c r="S14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="S15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="10" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="10" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="10" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="10" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="10" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="10" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="10" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="10" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="10" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="10" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="10" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="10" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="9" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="9" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="9" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="9" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="9" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="9" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="9" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="9" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
     </row>
     <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="9" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
     </row>
     <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="9" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
     </row>
     <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="9" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="9" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="9" t="s">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="9" t="s">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="9" t="s">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
     </row>
     <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="9" t="s">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
     </row>
     <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="9" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="9" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
     </row>
     <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="9" t="s">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="9" t="s">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="9" t="s">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
     </row>
     <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="9" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
     </row>
     <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="9" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="9" t="s">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
     </row>
     <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="9" t="s">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
     </row>
     <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
     </row>
     <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="9" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="10" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
     </row>
     <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
     </row>
     <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="9" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
     </row>
     <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="9" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
     </row>
     <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="9" t="s">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
     </row>
     <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="9" t="s">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
     </row>
     <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="9" t="s">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
     </row>
     <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="9" t="s">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
     </row>
     <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="9" t="s">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
     </row>
     <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="9" t="s">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
     </row>
     <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="9" t="s">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
     </row>
     <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="9" t="s">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
     </row>
     <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="9" t="s">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3554,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3568,1482 +3568,1482 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="Q5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="Q6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="Q7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="Q8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>2</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="Q14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="Q17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="10" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="10" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <v>2</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="15" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="18" t="s">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="18">
+      <c r="H61" s="5"/>
+      <c r="I61" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9">
+      <c r="H68" s="8"/>
+      <c r="I68" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
-      <c r="C75" s="5" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
     </row>
     <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-      <c r="C76" s="14" t="s">
+      <c r="B76" s="8"/>
+      <c r="C76" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
     </row>
     <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="8"/>
+      <c r="C77" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="8"/>
+      <c r="C78" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
     </row>
     <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
-      <c r="C79" s="14" t="s">
+      <c r="B79" s="8"/>
+      <c r="C79" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
     </row>
     <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
     </row>
     <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
     </row>
     <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
     </row>
     <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="9" t="s">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="9" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
     </row>
     <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9" t="s">
+      <c r="B91" s="4"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
     </row>
     <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
     </row>
     <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
     </row>
     <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
     </row>
     <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
     </row>
     <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="18" t="s">
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5">
+      <c r="H99" s="4"/>
+      <c r="I99" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20" t="s">
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="317">
   <si>
     <t>Task no</t>
   </si>
@@ -1075,9 +1075,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>under process alignment issue with the dashboard</t>
-  </si>
-  <si>
     <t>partially completed need to implement in the dashboard</t>
   </si>
   <si>
@@ -1085,6 +1082,15 @@
   </si>
   <si>
     <t xml:space="preserve">partially completed need to implement and work on frontend part </t>
+  </si>
+  <si>
+    <t>working with the admin dashboard design and its functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user dashboard dint have much features to design admin dashboard so we have a different dashboard for admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">designing and functionality part has been finished need to implement in the admin dashboard </t>
   </si>
 </sst>
 </file>
@@ -1202,9 +1208,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,6 +1235,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1525,279 +1531,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1825,1711 +1831,1711 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <v>8</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="S5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="S6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="S7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="S8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="S13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
       <c r="S14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="S15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="10" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="10" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="10" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="10" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="10" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="10" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="10" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="10" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="10" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="10" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="10" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="10" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="9" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="9" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="9" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="9" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="9" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="9" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="9" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="9" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
     </row>
     <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="9" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
     </row>
     <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="9" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
     </row>
     <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="9" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="9" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="9" t="s">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="9" t="s">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="9" t="s">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
     </row>
     <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="9" t="s">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
     </row>
     <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="9" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="9" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
     </row>
     <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="9" t="s">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="9" t="s">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="9" t="s">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
     </row>
     <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="9" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
     </row>
     <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="9" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="9" t="s">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
     </row>
     <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="9" t="s">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
     </row>
     <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
     </row>
     <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="9" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="10" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
     </row>
     <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
     </row>
     <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="9" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
     </row>
     <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="9" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
     </row>
     <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="9" t="s">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
     </row>
     <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="9" t="s">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
     </row>
     <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="9" t="s">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
     </row>
     <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="9" t="s">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
     </row>
     <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="9" t="s">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
     </row>
     <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="9" t="s">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
     </row>
     <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="9" t="s">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
     </row>
     <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="9" t="s">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
     </row>
     <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="9" t="s">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3555,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3569,1492 +3575,1500 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="Q5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="Q6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="Q7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="Q8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>2</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="Q14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="Q17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="10" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="10" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <v>2</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="15" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="9" t="s">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="9">
+      <c r="H61" s="5"/>
+      <c r="I61" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+    <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+      <c r="C79" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="C86" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
-      <c r="C75" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-      <c r="C76" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-      <c r="C77" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
-      <c r="C78" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
-      <c r="C79" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5" t="s">
+      <c r="C88" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5087,22 +5101,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
@@ -5110,9 +5124,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
@@ -5120,9 +5134,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
@@ -5130,9 +5144,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
@@ -5140,9 +5154,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D8" t="s">
@@ -5150,9 +5164,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D9" t="s">
@@ -5160,9 +5174,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D10" t="s">
@@ -5170,9 +5184,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D11" t="s">
@@ -5180,13 +5194,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D12" t="s">
@@ -5194,9 +5208,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D13" t="s">

--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="325">
   <si>
     <t>Task no</t>
   </si>
@@ -1091,6 +1091,30 @@
   </si>
   <si>
     <t xml:space="preserve">designing and functionality part has been finished need to implement in the admin dashboard </t>
+  </si>
+  <si>
+    <t>create same as history table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in local its working when we try to upload in server button data is not updating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuration page has been created </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>display current time and date</t>
+  </si>
+  <si>
+    <t>history table is fetching the data from db</t>
+  </si>
+  <si>
+    <t>fetching the data in the dashboard dynamically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgot password can get success message after updating </t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1817,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S112"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" activeCellId="1" sqref="K27 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2177,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -2169,7 +2195,9 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
@@ -2185,7 +2213,9 @@
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -2217,7 +2247,9 @@
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
@@ -3561,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3638,7 +3670,9 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
       <c r="Q5" t="s">
         <v>76</v>
       </c>
@@ -3726,7 +3760,9 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="H11" s="4">
         <v>2</v>
       </c>
@@ -3793,9 +3829,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -3864,8 +3904,12 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4005,7 +4049,7 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4208,7 +4252,9 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
@@ -4576,7 +4622,9 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="G74" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
@@ -4746,9 +4794,13 @@
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+      <c r="I86" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
@@ -4882,9 +4934,13 @@
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+      <c r="I96" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>

--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="328">
   <si>
     <t>Task no</t>
   </si>
@@ -1116,12 +1116,21 @@
   <si>
     <t xml:space="preserve">forgot password can get success message after updating </t>
   </si>
+  <si>
+    <t>Admin Pendios</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>action button,usercreation,configuration page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1156,8 +1165,21 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1196,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1230,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1262,6 +1290,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3593,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5008,7 +5039,9 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
+      <c r="C102" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
@@ -5017,8 +5050,12 @@
       <c r="I102" s="16"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
+      <c r="B103" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
@@ -5027,9 +5064,15 @@
       <c r="I103" s="16"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
+      <c r="B104" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>327</v>
+      </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -5137,7 +5180,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_repo\Projects\03_WeeklyTask\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Planning" sheetId="1" r:id="rId1"/>
-    <sheet name="Working and assign tasks" sheetId="2" r:id="rId2"/>
-    <sheet name="Software Planning" sheetId="3" r:id="rId3"/>
-    <sheet name="Task Sheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Planning" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Working and assign tasks" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Software Planning" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Task Sheet" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,351 +23,351 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="328">
-  <si>
-    <t>Task no</t>
-  </si>
-  <si>
-    <t>Task details</t>
-  </si>
-  <si>
-    <t>Sub task</t>
-  </si>
-  <si>
-    <t>Team members</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>PEN1001</t>
-  </si>
-  <si>
-    <t>GPRS data upload</t>
-  </si>
-  <si>
-    <t>Connection checking</t>
-  </si>
-  <si>
-    <t>Code cleanup</t>
-  </si>
-  <si>
-    <t>Data upload (JSON)</t>
-  </si>
-  <si>
-    <t>indicator fault upload</t>
-  </si>
-  <si>
-    <t>store data offline when no connection</t>
-  </si>
-  <si>
-    <t>Button fetch</t>
-  </si>
-  <si>
-    <t>Configuration fetch</t>
-  </si>
-  <si>
-    <t>Timeout function</t>
-  </si>
-  <si>
-    <t>MQTT protocol</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>MQTT Hardware</t>
-  </si>
-  <si>
-    <t>PEN1002</t>
-  </si>
-  <si>
-    <t>Power Source monitoring</t>
-  </si>
-  <si>
-    <t>ac voltage</t>
-  </si>
-  <si>
-    <t>ac current</t>
-  </si>
-  <si>
-    <t>ac power</t>
-  </si>
-  <si>
-    <t>dc voltage</t>
-  </si>
-  <si>
-    <t>dc current</t>
-  </si>
-  <si>
-    <t>dc power</t>
-  </si>
-  <si>
-    <t>PEN1003</t>
-  </si>
-  <si>
-    <t>Flash memory</t>
-  </si>
-  <si>
-    <t>Read chip info</t>
-  </si>
-  <si>
-    <t>Read data</t>
-  </si>
-  <si>
-    <t>write data</t>
-  </si>
-  <si>
-    <t>erase sector</t>
-  </si>
-  <si>
-    <t>erase block</t>
-  </si>
-  <si>
-    <t>erase chip</t>
-  </si>
-  <si>
-    <t>create pages for storing data, configuration, fault logs, data logs</t>
-  </si>
-  <si>
-    <t>PEN1004</t>
-  </si>
-  <si>
-    <t>Server Side scripting</t>
-  </si>
-  <si>
-    <t>Storing data in JSON format</t>
-  </si>
-  <si>
-    <t>Multi device information in a single page</t>
-  </si>
-  <si>
-    <t>No data available info</t>
-  </si>
-  <si>
-    <t>configuration of each devices</t>
-  </si>
-  <si>
-    <t>individual indicator info</t>
-  </si>
-  <si>
-    <t>Fault log page</t>
-  </si>
-  <si>
-    <t>History page</t>
-  </si>
-  <si>
-    <t>Action button working</t>
-  </si>
-  <si>
-    <t>New device registration</t>
-  </si>
-  <si>
-    <t>RTC</t>
-  </si>
-  <si>
-    <t>Read time</t>
-  </si>
-  <si>
-    <t>Read Date</t>
-  </si>
-  <si>
-    <t>Set Time</t>
-  </si>
-  <si>
-    <t>Set Date</t>
-  </si>
-  <si>
-    <t>Set Alram</t>
-  </si>
-  <si>
-    <t>Display</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="331">
+  <si>
+    <t xml:space="preserve">Task no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPRS data upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connection checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code cleanup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data upload (JSON)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator fault upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store data offline when no connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeout function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQTT protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQTT Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Source monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read chip info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erase sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erase block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erase chip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create pages for storing data, configuration, fault logs, data logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Side scripting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storing data in JSON format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi device information in a single page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No data available info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuration of each devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual indicator info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault log page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action button working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New device registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Alram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display</t>
   </si>
   <si>
     <t xml:space="preserve">LCD Setting </t>
   </si>
   <si>
-    <t>LCD Command</t>
-  </si>
-  <si>
-    <t>LCD Data</t>
-  </si>
-  <si>
-    <t>Clear Display</t>
-  </si>
-  <si>
-    <t>Animation effects</t>
-  </si>
-  <si>
-    <t>(Week Sprint 1)  28/Jun/2021 Team lead Sunil,  Khaleel Tech Lead</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>Sub Task</t>
-  </si>
-  <si>
-    <t>Team Member</t>
-  </si>
-  <si>
-    <t>Complexity Level</t>
-  </si>
-  <si>
-    <t>Remark</t>
+    <t xml:space="preserve">LCD Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Week Sprint 1)  28/Jun/2021 Team lead Sunil,  Khaleel Tech Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexity Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remark</t>
   </si>
   <si>
     <t xml:space="preserve"> Sunil</t>
   </si>
   <si>
-    <t>Kheeel</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Rahamath</t>
-  </si>
-  <si>
-    <t>Objective 1</t>
-  </si>
-  <si>
-    <t>GPRS Data</t>
+    <t xml:space="preserve">Kheeel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahamath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPRS Data</t>
   </si>
   <si>
     <t xml:space="preserve">KR1 </t>
   </si>
   <si>
-    <t>GPRS Intialization</t>
-  </si>
-  <si>
-    <t>Detect SIM card</t>
-  </si>
-  <si>
-    <t>Sunil</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Khaleel</t>
-  </si>
-  <si>
-    <t>Detect N/w</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Initialise GSM NW</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t xml:space="preserve">GPRS Intialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect SIM card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaleel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect N/w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialise GSM NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
   </si>
   <si>
     <t xml:space="preserve">Initialise GPRS </t>
   </si>
   <si>
-    <t>Make GPRS Bearer Connection</t>
-  </si>
-  <si>
-    <t>Link HTTP connection</t>
-  </si>
-  <si>
-    <t>Uplaod the Data</t>
-  </si>
-  <si>
-    <t>Close HTTP connection</t>
-  </si>
-  <si>
-    <t>KR2</t>
-  </si>
-  <si>
-    <t>GPRS Response</t>
-  </si>
-  <si>
-    <t>Read the response</t>
-  </si>
-  <si>
-    <t>Parse the response</t>
-  </si>
-  <si>
-    <t>KR3</t>
+    <t xml:space="preserve">Make GPRS Bearer Connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link HTTP connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uplaod the Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close HTTP connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPRS Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parse the response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR3</t>
   </si>
   <si>
     <t xml:space="preserve">Server Application </t>
   </si>
   <si>
-    <t>Creat PHP scripit to read URL</t>
-  </si>
-  <si>
-    <t>Fetch Data from URL and store DB</t>
-  </si>
-  <si>
-    <t>Send success response to Device</t>
-  </si>
-  <si>
-    <t>Send customizsed response to device</t>
-  </si>
-  <si>
-    <t>KR4</t>
-  </si>
-  <si>
-    <t>Web Application</t>
-  </si>
-  <si>
-    <t>Create PHP scrpit to read data from DB</t>
-  </si>
-  <si>
-    <t>KR4_1</t>
+    <t xml:space="preserve">Creat PHP scripit to read URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch Data from URL and store DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send success response to Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send customizsed response to device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create PHP scrpit to read data from DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4_1</t>
   </si>
   <si>
     <t xml:space="preserve">HTML and CSS to desing the UI </t>
   </si>
   <si>
-    <t>KR4_2</t>
-  </si>
-  <si>
-    <t>Customizsed Template</t>
-  </si>
-  <si>
-    <t>KR4_3</t>
-  </si>
-  <si>
-    <t>Different Login user</t>
-  </si>
-  <si>
-    <t>KR4_4</t>
-  </si>
-  <si>
-    <t>Admin should be able creat device</t>
-  </si>
-  <si>
-    <t>KR4_5</t>
-  </si>
-  <si>
-    <t>Admi can assing devices to each user</t>
-  </si>
-  <si>
-    <t>KR4_6</t>
-  </si>
-  <si>
-    <t>User can read/write only his device</t>
-  </si>
-  <si>
-    <t>KR4_7</t>
-  </si>
-  <si>
-    <t>User rights to configured read and Write</t>
-  </si>
-  <si>
-    <t>KR4_8</t>
-  </si>
-  <si>
-    <t>Device Confguration 
+    <t xml:space="preserve">KR4_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customizsed Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different Login user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin should be able creat device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admi can assing devices to each user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can read/write only his device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User rights to configured read and Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR4_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Confguration 
 1. Device ID
 2. Device Location
 3.Device Name
@@ -379,82 +375,82 @@
 etc.</t>
   </si>
   <si>
-    <t>Objective 2</t>
-  </si>
-  <si>
-    <t>Read Parameter</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Memory Intitilasation</t>
-  </si>
-  <si>
-    <t>KR1_1</t>
-  </si>
-  <si>
-    <t>Memory Configuration</t>
-  </si>
-  <si>
-    <t>KR1_2</t>
-  </si>
-  <si>
-    <t>Memory read</t>
-  </si>
-  <si>
-    <t>KR1_3</t>
-  </si>
-  <si>
-    <t>Memory Write</t>
-  </si>
-  <si>
-    <t>KR1_4</t>
-  </si>
-  <si>
-    <t>Memory related APIs</t>
-  </si>
-  <si>
-    <t>Internal Temp sensor</t>
-  </si>
-  <si>
-    <t>Intiiaise the temp sensor</t>
-  </si>
-  <si>
-    <t>Intilaise internal ADC</t>
-  </si>
-  <si>
-    <t>read Temperature</t>
+    <t xml:space="preserve">Objective 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Intitilasation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory related APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Temp sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intiiaise the temp sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intilaise internal ADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read Temperature</t>
   </si>
   <si>
     <t xml:space="preserve">Store Temperuatre with time </t>
   </si>
   <si>
-    <t>Power Parmeter</t>
+    <t xml:space="preserve">Power Parmeter</t>
   </si>
   <si>
     <t xml:space="preserve">Intialise the AC sensors </t>
   </si>
   <si>
-    <t>Read AC Volatage values</t>
-  </si>
-  <si>
-    <t>Read AC current values</t>
-  </si>
-  <si>
-    <t>Store w.r.t time</t>
+    <t xml:space="preserve">Read AC Volatage values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read AC current values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store w.r.t time</t>
   </si>
   <si>
     <t xml:space="preserve">Intialise the DC sensors </t>
   </si>
   <si>
-    <t>Read DC Volatage values</t>
-  </si>
-  <si>
-    <t>Read DC current values</t>
-  </si>
-  <si>
-    <t>Intialise the RTC</t>
+    <t xml:space="preserve">Read DC Volatage values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read DC current values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intialise the RTC</t>
   </si>
   <si>
     <t xml:space="preserve">Read  time </t>
@@ -463,124 +459,124 @@
     <t xml:space="preserve">Set Time </t>
   </si>
   <si>
-    <t>Set Alarm</t>
-  </si>
-  <si>
-    <t>Objective 3</t>
+    <t xml:space="preserve">Set Alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective 3</t>
   </si>
   <si>
     <t xml:space="preserve">Device User Interface &amp; Security </t>
   </si>
   <si>
-    <t>KR1</t>
-  </si>
-  <si>
-    <t>LCD 16x2</t>
+    <t xml:space="preserve">KR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD 16x2</t>
   </si>
   <si>
     <t xml:space="preserve">Initilaisation </t>
   </si>
   <si>
-    <t>Command write</t>
-  </si>
-  <si>
-    <t>Data Write</t>
-  </si>
-  <si>
-    <t>Animation display</t>
-  </si>
-  <si>
-    <t>Key pad 4 Buttons</t>
-  </si>
-  <si>
-    <t>Read Keys</t>
-  </si>
-  <si>
-    <t>Create Menus</t>
-  </si>
-  <si>
-    <t>Navigate Menu</t>
-  </si>
-  <si>
-    <t>Error Resets</t>
-  </si>
-  <si>
-    <t>LEDs</t>
-  </si>
-  <si>
-    <t>LED sequencing for Indication</t>
-  </si>
-  <si>
-    <t>LED Animation</t>
-  </si>
-  <si>
-    <t>LED OFF</t>
-  </si>
-  <si>
-    <t>LED ON</t>
-  </si>
-  <si>
-    <t>Display Date and Time</t>
-  </si>
-  <si>
-    <t>KR5</t>
-  </si>
-  <si>
-    <t>Display error Messages</t>
-  </si>
-  <si>
-    <t>Power Consumptions</t>
-  </si>
-  <si>
-    <t>KR6</t>
-  </si>
-  <si>
-    <t>Device Security</t>
-  </si>
-  <si>
-    <t>Initlaisation of GPIO</t>
-  </si>
-  <si>
-    <t>Monitor the GPIO open</t>
-  </si>
-  <si>
-    <t>Raise alram Buzzer or LED</t>
-  </si>
-  <si>
-    <t>Display on LCD</t>
+    <t xml:space="preserve">Command write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key pad 4 Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Menus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Resets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED sequencing for Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Date and Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display error Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Consumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initlaisation of GPIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor the GPIO open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise alram Buzzer or LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display on LCD</t>
   </si>
   <si>
     <t xml:space="preserve">Send Secuirty breach to Server </t>
   </si>
   <si>
-    <t>Send SMS Alert to User</t>
-  </si>
-  <si>
-    <t>Authorise access for secured access</t>
-  </si>
-  <si>
-    <t>Shut down the device incase of security breach</t>
-  </si>
-  <si>
-    <t>Objective 4</t>
+    <t xml:space="preserve">Send SMS Alert to User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorise access for secured access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shut down the device incase of security breach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective 4</t>
   </si>
   <si>
     <t xml:space="preserve"> Faults &amp; Log</t>
   </si>
   <si>
-    <t>Faults</t>
-  </si>
-  <si>
-    <t>Overload</t>
-  </si>
-  <si>
-    <t>Short Circuit</t>
-  </si>
-  <si>
-    <t>GSM NW issues</t>
-  </si>
-  <si>
-    <t>GPRS No connections</t>
+    <t xml:space="preserve">Faults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM NW issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPRS No connections</t>
   </si>
   <si>
     <t xml:space="preserve">ADC not working </t>
@@ -589,16 +585,16 @@
     <t xml:space="preserve">Sensor not wokring </t>
   </si>
   <si>
-    <t>Key Pad fault</t>
-  </si>
-  <si>
-    <t>LCD fault</t>
-  </si>
-  <si>
-    <t>LED fault</t>
-  </si>
-  <si>
-    <t>Flash Memory error</t>
+    <t xml:space="preserve">Key Pad fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash Memory error</t>
   </si>
   <si>
     <t xml:space="preserve">RTC Error </t>
@@ -607,115 +603,121 @@
     <t xml:space="preserve">Send communication Failed </t>
   </si>
   <si>
-    <t>Set voltage AC threshold overshoot</t>
-  </si>
-  <si>
-    <t>Set voltage DC threshold overshoot</t>
-  </si>
-  <si>
-    <t>Set Current AC threshold overshoot</t>
-  </si>
-  <si>
-    <t>Set Current DC threshold overshoot</t>
-  </si>
-  <si>
-    <t>All to be logged in flash memory with date and Time</t>
-  </si>
-  <si>
-    <t>History Log</t>
-  </si>
-  <si>
-    <t>Log every data that is send to Sever</t>
-  </si>
-  <si>
-    <t>Log for three months rolling period.</t>
-  </si>
-  <si>
-    <t>Memory full and roll back time to be logged seperatley for every roll over and communicate with the server.</t>
-  </si>
-  <si>
-    <t>Objective 5</t>
-  </si>
-  <si>
-    <t>Communication with Server</t>
-  </si>
-  <si>
-    <t>Uploading of Parmeters to server</t>
+    <t xml:space="preserve">Set voltage AC threshold overshoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set voltage DC threshold overshoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Current AC threshold overshoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Current DC threshold overshoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All to be logged in flash memory with date and Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log every data that is send to Sever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log for three months rolling period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory full and roll back time to be logged seperatley for every roll over and communicate with the server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication with Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uploading of Parmeters to server</t>
   </si>
   <si>
     <t xml:space="preserve">Repose from Server </t>
   </si>
   <si>
-    <t>Set date and time Request</t>
-  </si>
-  <si>
-    <t>Set threshold Request</t>
-  </si>
-  <si>
-    <t>Request history Log</t>
-  </si>
-  <si>
-    <t>Request for Fault Log</t>
-  </si>
-  <si>
-    <t>Request for SMS with recent  data</t>
-  </si>
-  <si>
-    <t>Shut down device from Server</t>
-  </si>
-  <si>
-    <t>On the device from Server</t>
-  </si>
-  <si>
-    <t>Request status of keys</t>
-  </si>
-  <si>
-    <t>Request Configuration  from Server</t>
-  </si>
-  <si>
-    <t>Incase no NW restart the GMS modem.</t>
-  </si>
-  <si>
-    <t>Pendios Dashboard</t>
-  </si>
-  <si>
-    <t>Login Page</t>
+    <t xml:space="preserve">Set date and time Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set threshold Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request history Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request for Fault Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request for SMS with recent  data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shut down device from Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the device from Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request status of keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Configuration  from Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incase no NW restart the GMS modem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendios Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page</t>
   </si>
   <si>
     <t xml:space="preserve">UserName and Password Fields </t>
   </si>
   <si>
-    <t>Login Button redirect to dashboard</t>
+    <t xml:space="preserve">Login Button redirect to dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">Username and Password Validation </t>
   </si>
   <si>
-    <t>if username and password matches the query it redirect to  Next page</t>
+    <t xml:space="preserve">if username and password matches the query it redirect to  Next page</t>
   </si>
   <si>
     <t xml:space="preserve"> session get started and redirect to next page</t>
   </si>
   <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>New password and confirm password</t>
-  </si>
-  <si>
-    <t>After creating new password data get updated in database</t>
-  </si>
-  <si>
-    <t>User Dashboard</t>
-  </si>
-  <si>
-    <t>Displaying Username and Device Id</t>
-  </si>
-  <si>
-    <t>KR2_1</t>
-  </si>
-  <si>
-    <t>Displaying of  Device value</t>
+    <t xml:space="preserve">Forgot Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New password and confirm password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgot password can get success message after updating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After creating new password data get updated in database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displaying Username and Device Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displaying of  Device value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetching the data in the dashboard dynamically</t>
   </si>
   <si>
     <t xml:space="preserve">Ac &amp; Dc voltage </t>
@@ -736,13 +738,37 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Ac &amp; Dc voltage respect to device id</t>
+      <t xml:space="preserve">Ac &amp; Dc voltage respect to device id</t>
     </r>
   </si>
   <si>
-    <t>Ac &amp; Dc Current</t>
+    <t xml:space="preserve">Ac &amp; Dc Current</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Display the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ac &amp; Dc voltage respect to device id</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AC &amp; Dc Power</t>
   </si>
   <si>
     <r>
@@ -760,13 +786,104 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Ac &amp; Dc Current respect to  device id</t>
+      <t xml:space="preserve">Ac &amp; Dc Power respect to  device id</t>
     </r>
   </si>
   <si>
-    <t>AC &amp; Dc Power</t>
+    <t xml:space="preserve">KR2_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the Updated time respect to device id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display current time and date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR2_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status of Device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicating LED Short Circuit,Shutdown ,Overload,Tampering and Health </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicating status of device green for Good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicating status of device red for Bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR2_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the AC &amp; Dc voltage vs Time in Bar chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ac voltage graph start from 0 to 250v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dc voltage from 0 to 25 v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting device data from db and fetching according to graph are Plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendios Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designing and functionality part has been finished need to implement in the admin dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuration  the user data with the device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device id Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile No Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auth code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth code Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server Link Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apn Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
   </si>
   <si>
     <r>
@@ -774,114 +891,10 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Display the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Ac &amp; Dc Power respect to  device id</t>
-    </r>
-  </si>
-  <si>
-    <t>KR2_2</t>
-  </si>
-  <si>
-    <t>Updated Time</t>
-  </si>
-  <si>
-    <t>Display the Updated time respect to device id</t>
-  </si>
-  <si>
-    <t>KR2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status of Device </t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicating LED Short Circuit,Shutdown ,Overload,Tampering and Health </t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicating status of device green for Good </t>
-  </si>
-  <si>
-    <t>indicating status of device red for Bad</t>
-  </si>
-  <si>
-    <t>KR2_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph </t>
-  </si>
-  <si>
-    <t>Display the AC &amp; Dc voltage vs Time in Bar chart</t>
-  </si>
-  <si>
-    <t>Ac voltage graph start from 0 to 250v</t>
-  </si>
-  <si>
-    <t>Dc voltage from 0 to 25 v</t>
-  </si>
-  <si>
-    <t>Getting device data from db and fetching according to graph are Plot</t>
-  </si>
-  <si>
-    <t>Pendios Configuration</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration  the user data with the device </t>
-  </si>
-  <si>
-    <t>Device id</t>
-  </si>
-  <si>
-    <t>Device id Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile No </t>
-  </si>
-  <si>
-    <t>Mobile No Configuration</t>
-  </si>
-  <si>
-    <t>auth code</t>
-  </si>
-  <si>
-    <t>Auth code Configuration</t>
-  </si>
-  <si>
-    <t>server link</t>
-  </si>
-  <si>
-    <t>server Link Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apn </t>
-  </si>
-  <si>
-    <t>Apn Configuration</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Username</t>
+      <t xml:space="preserve">Username</t>
     </r>
     <r>
       <rPr>
@@ -895,7 +908,7 @@
     </r>
   </si>
   <si>
-    <t>password</t>
+    <t xml:space="preserve">password</t>
   </si>
   <si>
     <r>
@@ -903,9 +916,10 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>password</t>
+      <t xml:space="preserve">password</t>
     </r>
     <r>
       <rPr>
@@ -919,7 +933,7 @@
     </r>
   </si>
   <si>
-    <t>location</t>
+    <t xml:space="preserve">location</t>
   </si>
   <si>
     <r>
@@ -927,9 +941,10 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>location</t>
+      <t xml:space="preserve">location</t>
     </r>
     <r>
       <rPr>
@@ -943,199 +958,212 @@
     </r>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Address Configuration</t>
-  </si>
-  <si>
-    <t>Submit Button</t>
-  </si>
-  <si>
-    <t>Submit button store the value into data base</t>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit button store the value into data base</t>
   </si>
   <si>
     <t xml:space="preserve">After Submitted data Store in DB </t>
   </si>
   <si>
-    <t>Pendios History</t>
-  </si>
-  <si>
-    <t>Export Button</t>
-  </si>
-  <si>
-    <t>it download the data into excel Format</t>
-  </si>
-  <si>
-    <t>fetch the data from DB and Download in Excel Sheet</t>
-  </si>
-  <si>
-    <t>Print Button</t>
+    <t xml:space="preserve">Pendios History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history table is fetching the data from db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it download the data into excel Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetch the data from DB and Download in Excel Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print Button</t>
   </si>
   <si>
     <t xml:space="preserve">Download data into pdf format </t>
   </si>
   <si>
-    <t>fetch data from DB and download in the pdf file</t>
-  </si>
-  <si>
-    <t>Data Table</t>
-  </si>
-  <si>
-    <t>it fetch the data from DB  and Display in dashboard</t>
-  </si>
-  <si>
-    <t>KR3_1</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>we can search value in the data table</t>
-  </si>
-  <si>
-    <t>Filtering option</t>
-  </si>
-  <si>
-    <t>Ascending and descending order in a particular column</t>
-  </si>
-  <si>
-    <t>Number of Rows</t>
+    <t xml:space="preserve">fetch data from DB and download in the pdf file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it fetch the data from DB  and Display in dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can search value in the data table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtering option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascending and descending order in a particular column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Rows</t>
   </si>
   <si>
     <t xml:space="preserve">displaying rows as required </t>
   </si>
   <si>
-    <t>ADMIN Pendios</t>
-  </si>
-  <si>
-    <t>Admin Login</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Admin Dashboard</t>
-  </si>
-  <si>
-    <t>Drop down option</t>
+    <t xml:space="preserve">ADMIN Pendios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop down option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working with the admin dashboard design and its functionality</t>
   </si>
   <si>
     <t xml:space="preserve">selecting the device id from Drop down List </t>
   </si>
   <si>
-    <t>selected  device id will fetch the user device data from DB</t>
-  </si>
-  <si>
-    <t>Fetch entire data from device id and display into the dashboard</t>
+    <t xml:space="preserve">the user dashboard dint have much features to design admin dashboard so we have a different dashboard for admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected  device id will fetch the user device data from DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch entire data from device id and display into the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_sms_on_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if button is click value get update to DB It Show the colour according to value updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if value 1 green colour ,if value 0 red Colour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update_server_on_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorise access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutdown Device</t>
   </si>
   <si>
     <t xml:space="preserve"> Configuration</t>
   </si>
   <si>
-    <t xml:space="preserve"> Actions</t>
-  </si>
-  <si>
-    <t>send_sms_on_demand</t>
-  </si>
-  <si>
-    <t>if button is click value get update to DB It Show the colour according to value updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if value 1 green colour ,if value 0 red Colour </t>
-  </si>
-  <si>
-    <t>Update_server_on_demand</t>
-  </si>
-  <si>
-    <t>Authorise access</t>
-  </si>
-  <si>
-    <t>Shutdown Device</t>
-  </si>
-  <si>
-    <t>need to discuss with Khaleel and Sunil Sir</t>
-  </si>
-  <si>
-    <t>User Creation</t>
+    <t xml:space="preserve">partially completed need to implement and work on frontend part </t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuration page has been created </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Button which edit configuration page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partially completed need to implement in the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in local its working when we try to upload in server button data is not updating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Creation</t>
   </si>
   <si>
     <t xml:space="preserve">admin should create the credentials for the user </t>
   </si>
   <si>
-    <t>partially completed</t>
-  </si>
-  <si>
-    <t>if the admin creates user credentials it dynamically creates a table in the db with the user credentials</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>partially completed need to implement in the dashboard</t>
+    <t xml:space="preserve">partially completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the admin creates user credentials data in DB and with two table created in database </t>
   </si>
   <si>
     <t xml:space="preserve">working with the frontend </t>
   </si>
   <si>
-    <t xml:space="preserve">partially completed need to implement and work on frontend part </t>
-  </si>
-  <si>
-    <t>working with the admin dashboard design and its functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the user dashboard dint have much features to design admin dashboard so we have a different dashboard for admin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">designing and functionality part has been finished need to implement in the admin dashboard </t>
-  </si>
-  <si>
-    <t>create same as history table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in local its working when we try to upload in server button data is not updating </t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration page has been created </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>display current time and date</t>
-  </si>
-  <si>
-    <t>history table is fetching the data from db</t>
-  </si>
-  <si>
-    <t>fetching the data in the dashboard dynamically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forgot password can get success message after updating </t>
-  </si>
-  <si>
-    <t>Admin Pendios</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>action button,usercreation,configuration page</t>
+    <t xml:space="preserve">one is for user device group &amp; another one for tracking user Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its end the session and Redirect to ADMIN Login Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Pendios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action button,usercreation,configuration page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1151,7 +1179,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1159,14 +1187,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1176,10 +1196,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1192,400 +1220,177 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1616,42 +1421,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1659,7 +1464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1667,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1678,32 +1483,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1714,37 +1519,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1755,47 +1560,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1806,27 +1611,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1837,71 +1642,79 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:S112"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" activeCellId="1" sqref="K27 G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.89"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
@@ -1929,7 +1742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
@@ -1945,7 +1758,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
@@ -1962,17 +1775,17 @@
         <v>75</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>8</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="S5" t="s">
+      <c r="S5" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8" t="s">
@@ -1986,16 +1799,16 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="S6" t="s">
+      <c r="S6" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="s">
@@ -2009,16 +1822,16 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="S7" t="s">
+      <c r="S7" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="s">
@@ -2031,11 +1844,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="S8" t="s">
+      <c r="S8" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="s">
@@ -2049,7 +1862,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="8" t="s">
@@ -2063,7 +1876,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="8" t="s">
@@ -2077,7 +1890,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
@@ -2091,7 +1904,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="8" t="s">
         <v>86</v>
       </c>
@@ -2108,11 +1921,11 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="S13" t="s">
+      <c r="S13" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
@@ -2125,11 +1938,11 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="S14" t="s">
+      <c r="S14" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
         <v>90</v>
       </c>
@@ -2146,11 +1959,11 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="S15" t="s">
+      <c r="S15" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8" t="s">
@@ -2164,7 +1977,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
@@ -2178,7 +1991,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
@@ -2192,7 +2005,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
         <v>96</v>
       </c>
@@ -2208,11 +2021,11 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="K19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
         <v>99</v>
       </c>
@@ -2226,11 +2039,11 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4">
+      <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
         <v>101</v>
       </c>
@@ -2244,11 +2057,11 @@
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="K21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
         <v>103</v>
       </c>
@@ -2264,7 +2077,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
@@ -2278,11 +2091,11 @@
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="K23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
         <v>107</v>
       </c>
@@ -2298,7 +2111,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
         <v>109</v>
       </c>
@@ -2314,7 +2127,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
         <v>111</v>
       </c>
@@ -2330,7 +2143,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="2:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="79.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
         <v>113</v>
       </c>
@@ -2346,7 +2159,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="11" t="s">
         <v>115</v>
       </c>
@@ -2362,7 +2175,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
         <v>71</v>
       </c>
@@ -2380,7 +2193,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8" t="s">
         <v>119</v>
       </c>
@@ -2396,7 +2209,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8" t="s">
         <v>121</v>
       </c>
@@ -2412,7 +2225,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
@@ -2428,7 +2241,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
         <v>125</v>
       </c>
@@ -2444,7 +2257,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
         <v>86</v>
       </c>
@@ -2462,7 +2275,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="9" t="s">
@@ -2476,7 +2289,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="9" t="s">
@@ -2490,7 +2303,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="9" t="s">
@@ -2504,7 +2317,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
@@ -2522,7 +2335,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="9" t="s">
@@ -2536,7 +2349,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="9" t="s">
@@ -2550,7 +2363,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="9" t="s">
@@ -2564,7 +2377,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="9" t="s">
@@ -2578,7 +2391,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="9" t="s">
@@ -2592,7 +2405,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="9" t="s">
@@ -2606,7 +2419,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="9" t="s">
@@ -2620,7 +2433,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="8" t="s">
         <v>96</v>
       </c>
@@ -2636,7 +2449,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="9" t="s">
@@ -2650,7 +2463,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="9" t="s">
@@ -2664,7 +2477,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9" t="s">
@@ -2678,7 +2491,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="9" t="s">
@@ -2692,7 +2505,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="9" t="s">
@@ -2706,7 +2519,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
         <v>144</v>
       </c>
@@ -2722,7 +2535,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
         <v>146</v>
       </c>
@@ -2740,7 +2553,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
@@ -2754,7 +2567,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
@@ -2768,7 +2581,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -2782,7 +2595,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -2796,7 +2609,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
         <v>86</v>
       </c>
@@ -2814,7 +2627,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
@@ -2828,7 +2641,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -2842,7 +2655,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
@@ -2856,7 +2669,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
@@ -2870,7 +2683,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
         <v>90</v>
       </c>
@@ -2888,7 +2701,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
@@ -2902,7 +2715,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="8" t="s">
@@ -2916,7 +2729,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
@@ -2930,7 +2743,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="8" t="s">
@@ -2944,7 +2757,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="8" t="s">
         <v>96</v>
       </c>
@@ -2962,7 +2775,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="8" t="s">
         <v>163</v>
       </c>
@@ -2980,7 +2793,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="8" t="s">
@@ -2994,7 +2807,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
         <v>166</v>
       </c>
@@ -3012,7 +2825,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="8" t="s">
@@ -3026,7 +2839,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="8" t="s">
@@ -3040,7 +2853,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
@@ -3054,7 +2867,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="8" t="s">
@@ -3068,7 +2881,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="8" t="s">
@@ -3082,7 +2895,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="8" t="s">
@@ -3096,7 +2909,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="8" t="s">
@@ -3110,7 +2923,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="5" t="s">
         <v>176</v>
       </c>
@@ -3126,7 +2939,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
         <v>146</v>
       </c>
@@ -3144,7 +2957,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="8" t="s">
@@ -3158,7 +2971,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="8" t="s">
@@ -3172,7 +2985,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="8" t="s">
@@ -3186,7 +2999,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="8" t="s">
@@ -3200,7 +3013,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="8" t="s">
@@ -3214,7 +3027,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="8" t="s">
@@ -3228,7 +3041,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
@@ -3242,7 +3055,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
@@ -3256,7 +3069,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
@@ -3270,7 +3083,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="8" t="s">
@@ -3284,7 +3097,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
@@ -3298,7 +3111,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="8" t="s">
@@ -3312,7 +3125,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="8" t="s">
@@ -3326,7 +3139,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="8" t="s">
@@ -3340,7 +3153,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="8" t="s">
@@ -3354,7 +3167,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="8" t="s">
@@ -3368,7 +3181,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="8" t="s">
         <v>86</v>
       </c>
@@ -3386,7 +3199,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="8" t="s">
@@ -3400,7 +3213,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="9" t="s">
@@ -3414,7 +3227,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
         <v>200</v>
       </c>
@@ -3430,7 +3243,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
         <v>146</v>
       </c>
@@ -3446,7 +3259,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="8" t="s">
@@ -3460,7 +3273,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="8" t="s">
@@ -3474,7 +3287,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="8" t="s">
@@ -3488,7 +3301,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="8" t="s">
@@ -3502,7 +3315,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="8" t="s">
@@ -3516,7 +3329,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="8" t="s">
@@ -3530,7 +3343,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="8" t="s">
@@ -3544,7 +3357,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="8" t="s">
@@ -3558,7 +3371,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="8" t="s">
@@ -3572,7 +3385,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="8" t="s">
@@ -3586,7 +3399,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="8" t="s">
@@ -3606,50 +3419,58 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E5:E112">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E112" type="list">
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F5:F112">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F112" type="list">
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:Q155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C84" activeCellId="0" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="65.109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="1023" max="1024" width="11.5546875" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
@@ -3671,7 +3492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
@@ -3685,7 +3506,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
@@ -3701,14 +3522,14 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8" t="s">
@@ -3721,11 +3542,11 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="Q6" t="s">
+      <c r="Q6" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="s">
@@ -3738,11 +3559,11 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="Q7" t="s">
+      <c r="Q7" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="s">
@@ -3753,11 +3574,11 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="Q8" t="s">
+      <c r="Q8" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="s">
@@ -3769,7 +3590,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="8"/>
@@ -3779,7 +3600,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
         <v>119</v>
       </c>
@@ -3792,18 +3613,18 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H11" s="4">
+        <v>223</v>
+      </c>
+      <c r="H11" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3811,7 +3632,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
@@ -3821,26 +3642,26 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="Q14" t="s">
+      <c r="Q14" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3850,48 +3671,48 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="I16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="Q17" t="s">
+      <c r="Q17" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3899,13 +3720,13 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3913,7 +3734,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8"/>
@@ -3923,27 +3744,27 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
@@ -3953,15 +3774,15 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3969,11 +3790,11 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3981,11 +3802,11 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3993,7 +3814,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
@@ -4003,15 +3824,15 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4019,11 +3840,11 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -4031,11 +3852,11 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -4043,11 +3864,11 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -4055,7 +3876,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
@@ -4065,33 +3886,33 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="4">
+      <c r="I32" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -4099,13 +3920,13 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="8"/>
       <c r="C34" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -4113,13 +3934,13 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="8"/>
-      <c r="C35" s="13" t="s">
-        <v>253</v>
+      <c r="C35" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -4127,13 +3948,13 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -4141,13 +3962,13 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="8"/>
       <c r="C37" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -4155,13 +3976,13 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="8"/>
-      <c r="C38" s="13" t="s">
-        <v>259</v>
+      <c r="C38" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -4169,13 +3990,13 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -4183,13 +4004,13 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -4197,13 +4018,13 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -4211,13 +4032,13 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -4225,7 +4046,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="9"/>
@@ -4235,15 +4056,15 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4251,11 +4072,11 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -4263,7 +4084,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="9"/>
@@ -4273,45 +4094,45 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4">
+      <c r="H48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4319,7 +4140,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="9"/>
@@ -4329,15 +4150,15 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4345,11 +4166,11 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4357,7 +4178,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="9"/>
@@ -4367,25 +4188,25 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4">
+      <c r="H54" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="8"/>
       <c r="C55" s="4"/>
       <c r="D55" s="9"/>
@@ -4395,15 +4216,15 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4411,13 +4232,13 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4425,13 +4246,13 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4439,7 +4260,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="9"/>
@@ -4449,10 +4270,10 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="4"/>
-      <c r="C60" s="14" t="s">
-        <v>288</v>
+      <c r="C60" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="4"/>
@@ -4461,25 +4282,25 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="8">
+      <c r="I61" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
         <v>146</v>
       </c>
@@ -4495,7 +4316,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
@@ -4507,7 +4328,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
@@ -4519,7 +4340,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8" t="s">
@@ -4531,7 +4352,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
@@ -4543,7 +4364,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4553,47 +4374,47 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="8">
+      <c r="I68" s="8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="8">
+      <c r="I69" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -4601,11 +4422,11 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -4613,7 +4434,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -4623,583 +4444,1113 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D73" s="4"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>250</v>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="8"/>
+      <c r="C74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="8" t="s">
-        <v>319</v>
-      </c>
+      <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="8"/>
       <c r="C75" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="8"/>
-      <c r="C76" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="8"/>
-      <c r="C77" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="C78" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="4"/>
+      <c r="D80" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="C82" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
+      <c r="D84" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
+      <c r="C87" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C88" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="4"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>306</v>
+      </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D95" s="4"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="4"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>306</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="8"/>
+      <c r="C99" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="8" t="s">
-        <v>307</v>
-      </c>
+      <c r="G99" s="4"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="4">
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="8"/>
+      <c r="C100" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="8"/>
+      <c r="C101" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="8"/>
+      <c r="C102" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="8"/>
+      <c r="C103" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="8"/>
+      <c r="C107" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="8"/>
+      <c r="C108" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="9"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="9"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="8"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="9"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="4"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="8"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="16"/>
-      <c r="C102" s="20" t="s">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="16"/>
+      <c r="C140" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D140" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="19" t="s">
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="16"/>
+      <c r="C144" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="21" t="s">
+      <c r="C145" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D104" s="21" t="s">
+      <c r="C146" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
+      <c r="D146" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E5:F99">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:F109 F110:F121 E122:F136" type="list">
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.77"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
@@ -5208,7 +5559,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5218,81 +5569,81 @@
       <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>86</v>
       </c>
@@ -5302,24 +5653,25 @@
       <c r="C12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
-        <v>310</v>
+      <c r="D13" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
+++ b/03_WeeklyTask/PEN1000 Pendios Architechture Planning June 26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="338">
   <si>
     <t xml:space="preserve">Task no</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t xml:space="preserve">UserName and Password Fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
   </si>
   <si>
     <t xml:space="preserve">Login Button redirect to dashboard</t>
@@ -748,26 +751,6 @@
     <t xml:space="preserve">Ac &amp; Dc Current</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Display the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Ac &amp; Dc voltage respect to device id</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">AC &amp; Dc Power</t>
   </si>
   <si>
@@ -1024,15 +1007,18 @@
     <t xml:space="preserve">displaying rows as required </t>
   </si>
   <si>
+    <t xml:space="preserve">Log Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its end the session and Redirect to ADMIN Login Page </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADMIN Pendios</t>
   </si>
   <si>
     <t xml:space="preserve">Admin Login</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Admin Dashboard</t>
   </si>
   <si>
@@ -1057,6 +1043,9 @@
     <t xml:space="preserve"> Actions</t>
   </si>
   <si>
+    <t xml:space="preserve">KR2_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">send_sms_on_demand</t>
   </si>
   <si>
@@ -1066,15 +1055,27 @@
     <t xml:space="preserve">if value 1 green colour ,if value 0 red Colour </t>
   </si>
   <si>
+    <t xml:space="preserve">KR2_6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Update_server_on_demand</t>
   </si>
   <si>
+    <t xml:space="preserve">KR2_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authorise access</t>
   </si>
   <si>
+    <t xml:space="preserve">KR2_8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shutdown Device</t>
   </si>
   <si>
+    <t xml:space="preserve">KR2_9 Objective 2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Configuration</t>
   </si>
   <si>
@@ -1090,12 +1091,21 @@
     <t xml:space="preserve">Edit Button which edit configuration page</t>
   </si>
   <si>
+    <t xml:space="preserve">KR 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> History</t>
+  </si>
+  <si>
     <t xml:space="preserve">partially completed need to implement in the dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">in local its working when we try to upload in server button data is not updating </t>
   </si>
   <si>
+    <t xml:space="preserve">KR 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">User Creation</t>
   </si>
   <si>
@@ -1112,12 +1122,6 @@
   </si>
   <si>
     <t xml:space="preserve">one is for user device group &amp; another one for tracking user Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">its end the session and Redirect to ADMIN Login Page </t>
   </si>
   <si>
     <t xml:space="preserve">Admin Pendios</t>
@@ -1142,7 +1146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1187,18 +1191,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1221,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1250,6 +1242,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1276,7 +1275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1325,11 +1324,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1337,7 +1344,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1349,7 +1360,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1384,10 +1395,10 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1700,7 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.89"/>
@@ -3443,19 +3454,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:Q155"/>
+  <dimension ref="B2:Q156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C84" activeCellId="0" sqref="C84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H175" activeCellId="0" sqref="H175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3469,6 +3482,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
@@ -3491,12 +3505,15 @@
       <c r="I3" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="J3" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>214</v>
       </c>
       <c r="D4" s="4"/>
@@ -3505,6 +3522,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
@@ -3525,6 +3543,9 @@
       <c r="I5" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="J5" s="15" t="s">
+        <v>217</v>
+      </c>
       <c r="Q5" s="0" t="s">
         <v>76</v>
       </c>
@@ -3533,7 +3554,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
@@ -3542,6 +3563,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="J6" s="12"/>
       <c r="Q6" s="0" t="s">
         <v>74</v>
       </c>
@@ -3550,7 +3572,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="8" t="s">
@@ -3559,6 +3581,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
+      <c r="J7" s="12"/>
       <c r="Q7" s="0" t="s">
         <v>68</v>
       </c>
@@ -3567,13 +3590,14 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
+      <c r="J8" s="12"/>
       <c r="Q8" s="0" t="s">
         <v>67</v>
       </c>
@@ -3582,13 +3606,14 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="4"/>
@@ -3599,38 +3624,43 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="4"/>
+      <c r="J11" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
@@ -3641,22 +3671,24 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
+      <c r="J14" s="12"/>
       <c r="Q14" s="0" t="s">
         <v>75</v>
       </c>
@@ -3670,38 +3702,43 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="J16" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
+      <c r="J17" s="12"/>
       <c r="Q17" s="0" t="s">
         <v>78</v>
       </c>
@@ -3709,16 +3746,17 @@
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
@@ -3733,6 +3771,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
@@ -3743,6 +3782,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
@@ -3763,6 +3803,9 @@
         <v>240</v>
       </c>
       <c r="I21" s="4"/>
+      <c r="J21" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
@@ -3773,6 +3816,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
@@ -3789,6 +3833,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
+      <c r="J23" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -3801,6 +3848,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -3813,6 +3861,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -3823,6 +3872,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8" t="s">
@@ -3839,6 +3889,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
+      <c r="J27" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -3851,6 +3904,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
@@ -3863,6 +3917,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
@@ -3875,6 +3930,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
@@ -3885,6 +3941,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="11" t="s">
@@ -3903,6 +3960,9 @@
       <c r="I32" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="J32" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
@@ -3919,6 +3979,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="8"/>
@@ -3933,10 +3994,11 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="8"/>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -3947,6 +4009,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="8"/>
@@ -3961,6 +4024,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="8"/>
@@ -3975,10 +4039,11 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="8"/>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -3989,6 +4054,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="4"/>
@@ -4003,6 +4069,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="4"/>
@@ -4017,6 +4084,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="4"/>
@@ -4031,6 +4099,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
@@ -4045,6 +4114,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
@@ -4055,6 +4125,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="4" t="s">
@@ -4071,6 +4142,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="4"/>
@@ -4083,6 +4155,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="4"/>
@@ -4093,6 +4166,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
@@ -4109,6 +4183,9 @@
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
+      <c r="J47" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="4" t="s">
@@ -4127,6 +4204,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="4"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="4"/>
@@ -4139,6 +4217,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="4"/>
@@ -4149,6 +4228,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="4" t="s">
@@ -4165,6 +4245,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="4"/>
@@ -4177,6 +4258,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="4"/>
@@ -4187,6 +4269,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
@@ -4205,6 +4288,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="4"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="8"/>
@@ -4215,6 +4299,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="4" t="s">
@@ -4231,6 +4316,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="4"/>
@@ -4245,6 +4331,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="4"/>
@@ -4259,6 +4346,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="4"/>
@@ -4269,170 +4357,169 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="4"/>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="5" t="s">
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="4"/>
+      <c r="C65" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="8" t="n">
+      <c r="C66" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="8" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="8" t="s">
+      <c r="J66" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>297</v>
-      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="8" t="s">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="8" t="s">
-        <v>299</v>
-      </c>
+      <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="8" t="n">
-        <v>4</v>
-      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="8" t="s">
-        <v>301</v>
-      </c>
+      <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8" t="s">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="8"/>
@@ -4443,1081 +4530,1228 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="B73" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="8"/>
-      <c r="C74" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="8"/>
-      <c r="C75" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>233</v>
-      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="8"/>
-      <c r="C76" s="4" t="s">
-        <v>234</v>
+      <c r="B76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="G76" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="D77" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="G77" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="8" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
+      <c r="J78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
       <c r="D79" s="8" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
+      <c r="J79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
+      <c r="J80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="B81" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
+      <c r="J81" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="B82" s="8"/>
       <c r="C82" s="4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
+      <c r="J82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
+      <c r="J83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D84" s="8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
+      <c r="J84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="8" t="s">
-        <v>251</v>
-      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="B86" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
+      <c r="J86" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
+      <c r="J87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>305</v>
-      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E88" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
+      <c r="J88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E89" s="4"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
+      <c r="J89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="4" t="s">
-        <v>86</v>
+      <c r="B90" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E90" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
+      <c r="J90" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E91" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
+      <c r="J91" s="12"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>309</v>
-      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
+      <c r="J92" s="12"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="4"/>
-      <c r="C93" s="8"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
+      <c r="J93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E94" s="4"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
+      <c r="J94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="4"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8" t="s">
-        <v>307</v>
-      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" s="8"/>
       <c r="E95" s="4"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
+      <c r="J95" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+      <c r="B96" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E96" s="4"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
+      <c r="J96" s="12"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="12"/>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E98" s="8"/>
+      <c r="D98" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E98" s="4"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
+      <c r="J98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="8"/>
-      <c r="C99" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>257</v>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="8"/>
-      <c r="C100" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>259</v>
+      <c r="B100" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="8"/>
-      <c r="C101" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>261</v>
+      <c r="B101" s="4"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="8"/>
-      <c r="C102" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>263</v>
+      <c r="B102" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="8"/>
-      <c r="C103" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>265</v>
+      <c r="B103" s="4"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="B105" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="B106" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="8"/>
-      <c r="C107" s="8" t="s">
-        <v>272</v>
+      <c r="C107" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
+      <c r="J107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="8"/>
-      <c r="C108" s="8" t="s">
-        <v>314</v>
+      <c r="C108" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
+      <c r="J108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="9"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
+      <c r="J109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D110" s="4"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>279</v>
+      <c r="B111" s="8"/>
+      <c r="C111" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="I111" s="4"/>
+      <c r="J111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+      <c r="C112" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="9"/>
+      <c r="C113" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
+      <c r="J113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="B114" s="4"/>
       <c r="C114" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>283</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
+      <c r="J114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="D115" s="9" t="s">
-        <v>284</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
+      <c r="J115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="9"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
+      <c r="J116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>286</v>
-      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
+      <c r="J117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="8"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="9"/>
+      <c r="B118" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+      <c r="I118" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="4" t="s">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="G119" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+      <c r="I119" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="4"/>
-      <c r="C120" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="C120" s="4"/>
       <c r="D120" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
+      <c r="J120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="4"/>
-      <c r="C121" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="9"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
+      <c r="J121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="4"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
+      <c r="J122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
+      <c r="J123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="9"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
+      <c r="J124" s="12"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="B125" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="D125" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E125" s="4"/>
+        <v>286</v>
+      </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
+      <c r="J125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="4"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="4"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
+      <c r="J126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="4" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E127" s="4"/>
+        <v>289</v>
+      </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
+      <c r="J127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="D128" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E128" s="4"/>
+        <v>291</v>
+      </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
+      <c r="J128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="4"/>
+      <c r="C129" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
+      <c r="J129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>286</v>
-      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
+      <c r="J130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="8"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="9"/>
+      <c r="B131" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
+      <c r="J131" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="4" t="s">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
+      <c r="J132" s="12"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="4"/>
-      <c r="C133" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="C133" s="4"/>
       <c r="D133" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
+      <c r="J133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="4"/>
-      <c r="C134" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="9"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
+      <c r="J134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="8"/>
+      <c r="B135" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
+      <c r="J135" s="12"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>319</v>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="8" t="s">
-        <v>320</v>
-      </c>
+      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="4" t="n">
+      <c r="I136" s="4"/>
+      <c r="J136" s="12"/>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="12"/>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="12"/>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="8"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="12"/>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="12"/>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="4"/>
+      <c r="C141" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="12"/>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="16"/>
-      <c r="C140" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="16"/>
-      <c r="C144" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
+      <c r="J144" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="12"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="12"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="12"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="19"/>
+      <c r="C148" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="12"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="12"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="12"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="12"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="19"/>
+      <c r="C152" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="15"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C145" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="17" t="s">
+      <c r="C153" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="12"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="16"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="16"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="16"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="16"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="16"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="16"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
+      <c r="C154" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="12"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:F109 F110:F121 E122:F136" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:F117 F118:F129 E130:F144" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5539,11 +5773,11 @@
   </sheetPr>
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
@@ -5570,7 +5804,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,7 +5814,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,7 +5824,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,7 +5834,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,7 +5844,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,7 +5854,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +5864,7 @@
         <v>84</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +5874,7 @@
         <v>85</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +5888,7 @@
         <v>88</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5898,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
